--- a/my_code/excel files/weight_and_factors_result.xlsx
+++ b/my_code/excel files/weight_and_factors_result.xlsx
@@ -442,202 +442,202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07801700380156518</v>
+        <v>0.03156792118756969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3289869695847673</v>
+        <v>0.939990559993592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7480419201891125</v>
+        <v>0.05167416594198131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3958094020368605</v>
+        <v>0.04147550293697191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04079729437993165</v>
+        <v>0.03263783550394532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7531756303471863</v>
+        <v>0.04514868199427455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.967972474268326</v>
+        <v>0.07437797941466077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2158519601641093</v>
+        <v>0.9467563311337541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3515464876512764</v>
+        <v>0.058308350443767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1919324696214265</v>
+        <v>0.9376882015336185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7039128913745412</v>
+        <v>0.06376744125821353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6542277516032795</v>
+        <v>0.06029205332833725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4353771789977367</v>
+        <v>0.05779998098317343</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7245747502687785</v>
+        <v>0.05616426305477923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2755123601749804</v>
+        <v>0.05472168419632627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2758460890929421</v>
+        <v>0.955677609879598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4037955697782212</v>
+        <v>0.9355315004666163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4957803766376764</v>
+        <v>0.04800921162175867</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5177327291131057</v>
+        <v>0.04565151322148366</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5604078569225044</v>
+        <v>0.9394860282568145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6357950831653032</v>
+        <v>0.05064639480204739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.487736591248448</v>
+        <v>0.04166514918221484</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.446277481761323</v>
+        <v>0.04501212832098334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5119489762190507</v>
+        <v>0.04504873063684611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5616183623367221</v>
+        <v>0.03571889043675101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4615974336948859</v>
+        <v>0.9420327884994528</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5088023120783454</v>
+        <v>0.04687582373724237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.418084300022749</v>
+        <v>0.05125038313061273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3903930790616199</v>
+        <v>0.05632607957537897</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4302864391584948</v>
+        <v>0.9463047396100521</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4543066059495978</v>
+        <v>0.0563236159452473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4147338890872677</v>
+        <v>0.06160953389031205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3086986928583673</v>
+        <v>0.05356213928576739</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5417741182651294</v>
+        <v>0.06610446550074273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6857898689415609</v>
+        <v>0.06835630603067969</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.211180630001075</v>
+        <v>0.05638666982658216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3371223116344028</v>
+        <v>0.0587111191203309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4828785954779546</v>
+        <v>0.06621844033311444</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.338637715561204</v>
+        <v>0.9563735210504116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4773099535372968</v>
+        <v>0.06277490953660118</v>
       </c>
     </row>
   </sheetData>
